--- a/Codemig/AMR_Model/HEx_Hot_Final.xlsx
+++ b/Codemig/AMR_Model/HEx_Hot_Final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20344"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20348"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Documents\GitHub\Jupyter\Codemig\AMR_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B39336-D30E-4E7F-A779-3E961ACF318E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAC4B2C-091F-4FF7-965D-8F864735B837}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +885,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>368.57142857142861</v>
       </c>
@@ -917,7 +917,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>368.57142857142861</v>
       </c>
@@ -949,7 +949,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>368.57142857142861</v>
       </c>
@@ -981,7 +981,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>368.57142857142861</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>368.57142857142861</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>368.57142857142861</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>368.57142857142861</v>
       </c>
@@ -1108,8 +1108,12 @@
       <c r="J23" s="1">
         <v>1092</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <f>D23*0.1/J23*0.5888*3600</f>
+        <v>18.249887360534252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>368.57142857142861</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>368.57142857142861</v>
       </c>
@@ -1173,7 +1177,13 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f>600/0.588</f>
+        <v>1020.4081632653061</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G33">
         <f>8*27.5</f>
         <v>220</v>
@@ -1181,6 +1191,12 @@
       <c r="H33">
         <f>H23*31.75*8</f>
         <v>508</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <f>150*1.25</f>
+        <v>187.5</v>
       </c>
     </row>
   </sheetData>
